--- a/bank/Book1.xlsx
+++ b/bank/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,19 +541,6 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>sandeep</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
